--- a/Project/王锦阳/4月26-30日测试用例/测试用例-王锦阳.xlsx
+++ b/Project/王锦阳/4月26-30日测试用例/测试用例-王锦阳.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TestProjectFile\MetinfoTestWork\Project\王锦阳\测试用例\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TestProjectFile\MetinfoTestWork\Project\王锦阳\4月26-30日测试用例\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D23DE9-B573-4C24-A45A-3B8BB2555270}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED1AA23-B254-46BD-BA4C-80FF425A0119}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="130">
   <si>
     <t>功能列表--测试用例</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -487,6 +487,62 @@
   </si>
   <si>
     <t>密码不可见</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击推荐计划，输入高身高低体重</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐计划为增重</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击推荐计划，输入低身高高体重</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐计划为减脂</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击推荐计划，输入身高体重，添加已收藏的计划</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加失败，给出提示</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击计划，点击导航栏</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换模块</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击推荐计划，输入身高体重，切换男女查看</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐课程有区别和侧重</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐课程一致</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>小bug，可不修复</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -883,10 +939,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="29.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1776,7 +1832,114 @@
       </c>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:7" ht="29.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:7" ht="29.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>41</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" spans="1:7" ht="29.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>42</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G44" s="3"/>
+    </row>
+    <row r="45" spans="1:7" ht="29.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>43</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G45" s="3"/>
+    </row>
+    <row r="46" spans="1:7" ht="29.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>44</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G46" s="3"/>
+    </row>
+    <row r="47" spans="1:7" ht="29.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>45</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="29.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
